--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2070019.402566397</v>
+        <v>2070019.402566398</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1022867.734311067</v>
+        <v>395537.1225287615</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931186</v>
+        <v>2731752.266931185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9574059.581137015</v>
+        <v>9574059.581137016</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>159.5623709710783</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.51651982872559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>234.1050719511117</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>39.82016024261407</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>134.0196014506295</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.5124928237678</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.042269072646</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>143.5541152141126</v>
       </c>
       <c r="T11" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U11" t="n">
-        <v>118.3938258603493</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>172.6837002464335</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H12" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I12" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827035</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840972</v>
       </c>
       <c r="S12" t="n">
         <v>143.1316361901922</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>87.74790450822412</v>
       </c>
       <c r="D13" t="n">
-        <v>140.1442324130069</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1549,7 +1549,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.249572729045454</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
-        <v>310.0528293142925</v>
+        <v>33.96251020937711</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.5541152141126</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>18.8607752264143</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>97.38999444196338</v>
       </c>
       <c r="I15" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827035</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840972</v>
       </c>
       <c r="S15" t="n">
         <v>143.1316361901922</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>23.59080269859163</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>40.06343386180797</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.7023003289308</v>
@@ -1786,7 +1786,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045425</v>
+        <v>2.249572729045454</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S16" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366318</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H18" t="n">
-        <v>97.38999444196338</v>
+        <v>97.38999444196337</v>
       </c>
       <c r="I18" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840915</v>
       </c>
       <c r="S18" t="n">
         <v>143.1316361901922</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>136.456668163147</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>36.44898485589246</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>118.5796179100774</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>177.5166254234896</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.9404988026221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,19 +2248,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>100.6531572991869</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>136.1537375235364</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
-        <v>99.71884268366321</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.11582180088</v>
+        <v>118.5796179100783</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S24" t="n">
         <v>143.1316361901922</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>87.76381751630448</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H25" t="n">
         <v>150.7696444085454</v>
@@ -2497,7 +2497,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
-        <v>2.24957272904544</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2487377730621</v>
+        <v>64.13877966654996</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>235.8725802071987</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.11582180088</v>
+        <v>18.8607752264143</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S27" t="n">
         <v>143.1316361901922</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.726908159159</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
-        <v>204.1207525841144</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I29" t="n">
-        <v>73.15064961249688</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>18.8607752264143</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S30" t="n">
         <v>143.1316361901922</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28877240217693</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.5402511067124</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>379.4266954213111</v>
+        <v>379.4266954213119</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S33" t="n">
         <v>143.1316361901922</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.56160755937024</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.24957272904544</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>201.5584371314712</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U34" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>224.6914693642788</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H35" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U35" t="n">
-        <v>118.5796179100774</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>51.47614731549186</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S36" t="n">
         <v>143.1316361901922</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S37" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>41.69064133330294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.0472337180474</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>18.8607752264143</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>153.9828920815873</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>44.7857502024216</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.07038628799117</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
         <v>286.2487377730621</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>356.770080718499</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>235.8725802071996</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U41" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>136.456668163147</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
-        <v>249.268630317399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>69.37386610701903</v>
       </c>
       <c r="T44" t="n">
-        <v>95.49721189566876</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U44" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.0922005312028</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2487377730621</v>
@@ -4195,10 +4195,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>67.11688788740281</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
         <v>1422.14692331494</v>
@@ -4316,28 +4316,28 @@
         <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>625.372765927088</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.974978926224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.974978926224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.974978926224</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>2535.974978926224</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050018</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4489,49 +4489,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146236</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146236</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W4" t="n">
-        <v>120.121284677663</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X4" t="n">
-        <v>120.121284677663</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1958.288858935031</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1958.288858935031</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.02316032828</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>563.3387302614404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>563.3387302614404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>563.3387302614404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>563.3387302614404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.3387302614404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>830.0930207753941</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>419.1071159857865</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2472.38073581877</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2472.38073581877</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2472.38073581877</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2119.612080548655</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1746.146322287575</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,61 +4936,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
         <v>598.0446400632119</v>
@@ -4999,13 +4999,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2127.193604228027</v>
+        <v>2026.467500507155</v>
       </c>
       <c r="C11" t="n">
-        <v>1758.231087287615</v>
+        <v>1657.504983566743</v>
       </c>
       <c r="D11" t="n">
-        <v>1399.965388680864</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E11" t="n">
-        <v>1014.17713608262</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F11" t="n">
-        <v>603.1912312930126</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G11" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H11" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I11" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K11" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
@@ -5054,10 +5054,10 @@
         <v>2838.872804512372</v>
       </c>
       <c r="O11" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q11" t="n">
         <v>4263.177005716608</v>
@@ -5066,25 +5066,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S11" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T11" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U11" t="n">
-        <v>3961.230077142725</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V11" t="n">
-        <v>3630.167189799155</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W11" t="n">
-        <v>3277.39853452904</v>
+        <v>3176.672430808168</v>
       </c>
       <c r="X11" t="n">
-        <v>2903.93277626796</v>
+        <v>2803.206672547088</v>
       </c>
       <c r="Y11" t="n">
-        <v>2513.793444292149</v>
+        <v>2413.067340571276</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G12" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H12" t="n">
         <v>122.7112205924348</v>
@@ -5118,19 +5118,19 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J12" t="n">
-        <v>85.86932082650513</v>
+        <v>228.9031180673685</v>
       </c>
       <c r="K12" t="n">
-        <v>211.2268808843425</v>
+        <v>228.9031180673685</v>
       </c>
       <c r="L12" t="n">
-        <v>441.1899867526917</v>
+        <v>458.8662239357176</v>
       </c>
       <c r="M12" t="n">
-        <v>1147.104515312309</v>
+        <v>779.2015434654195</v>
       </c>
       <c r="N12" t="n">
-        <v>1491.625170949927</v>
+        <v>1519.506542469231</v>
       </c>
       <c r="O12" t="n">
         <v>1897.156211352461</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="C13" t="n">
-        <v>960.7860579478834</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D13" t="n">
-        <v>819.2262272276744</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E13" t="n">
-        <v>671.3131336452813</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F13" t="n">
-        <v>524.4231861473709</v>
+        <v>526.6954818332754</v>
       </c>
       <c r="G13" t="n">
-        <v>356.0370241989559</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="H13" t="n">
-        <v>203.744454089314</v>
+        <v>206.0167497752186</v>
       </c>
       <c r="I13" t="n">
-        <v>85.86932082650513</v>
+        <v>88.14161651240963</v>
       </c>
       <c r="J13" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="K13" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L13" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M13" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905833</v>
       </c>
       <c r="N13" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824183</v>
       </c>
       <c r="O13" t="n">
-        <v>1111.798861477226</v>
+        <v>1111.798861477225</v>
       </c>
       <c r="P13" t="n">
         <v>1263.405907429031</v>
       </c>
       <c r="Q13" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R13" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S13" t="n">
-        <v>960.7860579478834</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="V13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="W13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="X13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.7860579478834</v>
+        <v>1060.249409303919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2440.378280303069</v>
+        <v>2060.773066375212</v>
       </c>
       <c r="C14" t="n">
-        <v>2071.415763362658</v>
+        <v>1691.810549434801</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.150064755907</v>
+        <v>1333.54485082805</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.361812157663</v>
+        <v>947.7565982298058</v>
       </c>
       <c r="F14" t="n">
-        <v>916.3759073680556</v>
+        <v>536.7706934401983</v>
       </c>
       <c r="G14" t="n">
-        <v>499.78010062242</v>
+        <v>120.1748866945628</v>
       </c>
       <c r="H14" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I14" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J14" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017701</v>
       </c>
       <c r="K14" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L14" t="n">
         <v>1409.142484443882</v>
@@ -5288,13 +5288,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N14" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O14" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P14" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q14" t="n">
         <v>4263.177005716608</v>
@@ -5303,25 +5303,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S14" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T14" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="U14" t="n">
-        <v>4274.414753217768</v>
+        <v>3894.809539289911</v>
       </c>
       <c r="V14" t="n">
-        <v>3943.351865874197</v>
+        <v>3563.74665194634</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.583210604083</v>
+        <v>3210.977996676226</v>
       </c>
       <c r="X14" t="n">
-        <v>3217.117452343003</v>
+        <v>2837.512238415146</v>
       </c>
       <c r="Y14" t="n">
-        <v>2826.978120367191</v>
+        <v>2447.372906439334</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H15" t="n">
         <v>122.7112205924348</v>
@@ -5355,25 +5355,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J15" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673685</v>
       </c>
       <c r="K15" t="n">
-        <v>165.0594008669249</v>
+        <v>354.2606781252059</v>
       </c>
       <c r="L15" t="n">
-        <v>725.4379255170982</v>
+        <v>914.6392027753792</v>
       </c>
       <c r="M15" t="n">
-        <v>1431.352454076716</v>
+        <v>1392.938457817243</v>
       </c>
       <c r="N15" t="n">
-        <v>2171.657453080527</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O15" t="n">
-        <v>2420.410867164489</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P15" t="n">
-        <v>2578.365568593983</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q15" t="n">
         <v>2634.034907031697</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.0997797731095</v>
+        <v>1140.551345253822</v>
       </c>
       <c r="C16" t="n">
-        <v>567.1635968452026</v>
+        <v>971.6151623259146</v>
       </c>
       <c r="D16" t="n">
-        <v>567.1635968452026</v>
+        <v>821.4985229135789</v>
       </c>
       <c r="E16" t="n">
-        <v>567.1635968452026</v>
+        <v>673.5854293311858</v>
       </c>
       <c r="F16" t="n">
         <v>526.6954818332754</v>
@@ -5428,28 +5428,28 @@
         <v>358.3093198848604</v>
       </c>
       <c r="H16" t="n">
-        <v>206.0167497752185</v>
+        <v>206.0167497752186</v>
       </c>
       <c r="I16" t="n">
-        <v>88.1416165124096</v>
+        <v>88.14161651240963</v>
       </c>
       <c r="J16" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="K16" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905833</v>
       </c>
       <c r="N16" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824183</v>
       </c>
       <c r="O16" t="n">
-        <v>1111.798861477226</v>
+        <v>1111.798861477225</v>
       </c>
       <c r="P16" t="n">
         <v>1263.405907429031</v>
@@ -5461,25 +5461,25 @@
         <v>1164.380438888763</v>
       </c>
       <c r="S16" t="n">
-        <v>960.7860579478829</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="U16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="V16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="W16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="X16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.0997797731095</v>
+        <v>1164.380438888763</v>
       </c>
     </row>
     <row r="17">
@@ -5516,7 +5516,7 @@
         <v>315.4340448017696</v>
       </c>
       <c r="K17" t="n">
-        <v>780.2368617726829</v>
+        <v>780.236861772683</v>
       </c>
       <c r="L17" t="n">
         <v>1409.142484443882</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2646.853706366316</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C18" t="n">
-        <v>2472.400677085189</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D18" t="n">
-        <v>2323.466267423938</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E18" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F18" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G18" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H18" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I18" t="n">
-        <v>1745.300455120066</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J18" t="n">
-        <v>1888.334252360929</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K18" t="n">
-        <v>2245.200793876932</v>
+        <v>456.9577055139844</v>
       </c>
       <c r="L18" t="n">
-        <v>2475.163899745281</v>
+        <v>686.9208113823336</v>
       </c>
       <c r="M18" t="n">
-        <v>2795.499219274983</v>
+        <v>1392.835339941951</v>
       </c>
       <c r="N18" t="n">
-        <v>3140.019874912601</v>
+        <v>1737.355995579569</v>
       </c>
       <c r="O18" t="n">
-        <v>3750.838640428895</v>
+        <v>2187.745576122142</v>
       </c>
       <c r="P18" t="n">
-        <v>4224.071482811927</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q18" t="n">
-        <v>4293.466041325257</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R18" t="n">
-        <v>4288.697482204206</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S18" t="n">
-        <v>4144.120071911082</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T18" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U18" t="n">
-        <v>3720.070307316815</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V18" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W18" t="n">
-        <v>3230.680842356871</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X18" t="n">
-        <v>3022.829342151338</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y18" t="n">
-        <v>2815.069043386384</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.86932082650513</v>
+        <v>556.2603170478687</v>
       </c>
       <c r="C19" t="n">
-        <v>85.86932082650513</v>
+        <v>387.3241341199619</v>
       </c>
       <c r="D19" t="n">
-        <v>85.86932082650513</v>
+        <v>387.3241341199619</v>
       </c>
       <c r="E19" t="n">
-        <v>85.86932082650513</v>
+        <v>387.3241341199619</v>
       </c>
       <c r="F19" t="n">
-        <v>85.86932082650513</v>
+        <v>240.4341866220515</v>
       </c>
       <c r="G19" t="n">
-        <v>85.86932082650513</v>
+        <v>240.4341866220515</v>
       </c>
       <c r="H19" t="n">
-        <v>85.86932082650513</v>
+        <v>88.14161651240958</v>
       </c>
       <c r="I19" t="n">
-        <v>85.86932082650513</v>
+        <v>88.14161651240958</v>
       </c>
       <c r="J19" t="n">
         <v>85.86932082650513</v>
@@ -5680,10 +5680,10 @@
         <v>429.0360225430045</v>
       </c>
       <c r="M19" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905835</v>
       </c>
       <c r="N19" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824186</v>
       </c>
       <c r="O19" t="n">
         <v>1111.798861477226</v>
@@ -5692,31 +5692,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q19" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R19" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S19" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T19" t="n">
-        <v>1147.100669132079</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="U19" t="n">
-        <v>857.96052996737</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="V19" t="n">
-        <v>603.2760417614832</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="W19" t="n">
-        <v>313.8588717245225</v>
+        <v>995.518517441732</v>
       </c>
       <c r="X19" t="n">
-        <v>85.86932082650513</v>
+        <v>958.7013610216386</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.86932082650513</v>
+        <v>737.9087818781085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2339.652176582198</v>
+        <v>2026.467500507155</v>
       </c>
       <c r="C20" t="n">
-        <v>1970.689659641786</v>
+        <v>1657.504983566743</v>
       </c>
       <c r="D20" t="n">
-        <v>1612.423961035036</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E20" t="n">
-        <v>1226.635708436791</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F20" t="n">
-        <v>815.6498036471836</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G20" t="n">
-        <v>399.0539969015481</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H20" t="n">
         <v>85.86932082650513</v>
@@ -5750,22 +5750,22 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017701</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K20" t="n">
-        <v>780.2368617726838</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L20" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M20" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N20" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P20" t="n">
         <v>3965.930520291103</v>
@@ -5777,25 +5777,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S20" t="n">
-        <v>4173.688649496896</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T20" t="n">
-        <v>4173.688649496896</v>
+        <v>4114.156318675267</v>
       </c>
       <c r="U20" t="n">
-        <v>4173.688649496896</v>
+        <v>3860.503973421853</v>
       </c>
       <c r="V20" t="n">
-        <v>3842.625762153325</v>
+        <v>3529.441086078282</v>
       </c>
       <c r="W20" t="n">
-        <v>3489.857106883211</v>
+        <v>3176.672430808168</v>
       </c>
       <c r="X20" t="n">
-        <v>3116.391348622131</v>
+        <v>2803.206672547088</v>
       </c>
       <c r="Y20" t="n">
-        <v>2726.25201664632</v>
+        <v>2413.067340571276</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>228.9031180673686</v>
       </c>
       <c r="K21" t="n">
-        <v>352.0731725104891</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L21" t="n">
-        <v>545.319755310238</v>
+        <v>584.2237839935551</v>
       </c>
       <c r="M21" t="n">
-        <v>1251.234283869856</v>
+        <v>1290.138312553173</v>
       </c>
       <c r="N21" t="n">
-        <v>1991.539282873666</v>
+        <v>1634.658968190791</v>
       </c>
       <c r="O21" t="n">
-        <v>2212.434352305999</v>
+        <v>2245.477733707085</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.389053735493</v>
+        <v>2428.121211320436</v>
       </c>
       <c r="Q21" t="n">
         <v>2634.034907031697</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1140.551345253822</v>
+        <v>3663.03544645347</v>
       </c>
       <c r="C22" t="n">
-        <v>971.6151623259146</v>
+        <v>3494.099263525563</v>
       </c>
       <c r="D22" t="n">
-        <v>821.4985229135789</v>
+        <v>3343.982624113227</v>
       </c>
       <c r="E22" t="n">
-        <v>673.5854293311858</v>
+        <v>3196.069530530834</v>
       </c>
       <c r="F22" t="n">
-        <v>526.6954818332754</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G22" t="n">
-        <v>358.3093198848604</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H22" t="n">
-        <v>206.0167497752185</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I22" t="n">
-        <v>88.1416165124096</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J22" t="n">
-        <v>85.86932082650513</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K22" t="n">
-        <v>212.046385895188</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L22" t="n">
-        <v>429.0360225430045</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M22" t="n">
-        <v>668.2102932905834</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N22" t="n">
-        <v>907.1321508824185</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O22" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P22" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="U22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="V22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="X22" t="n">
-        <v>1284.935687478692</v>
+        <v>4065.47649042724</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.935687478692</v>
+        <v>3844.68391128371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.126825283943</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C23" t="n">
-        <v>1479.164308343531</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D23" t="n">
-        <v>1120.898609736781</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E23" t="n">
-        <v>735.1103571385365</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F23" t="n">
-        <v>324.124452348929</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G23" t="n">
-        <v>186.5954245473771</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H23" t="n">
-        <v>186.5954245473771</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I23" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017701</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L23" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M23" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712279</v>
       </c>
       <c r="N23" t="n">
         <v>2838.872804512373</v>
@@ -6005,34 +6005,34 @@
         <v>3467.276709192399</v>
       </c>
       <c r="P23" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q23" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R23" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S23" t="n">
-        <v>4148.461884543325</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="T23" t="n">
-        <v>3935.815643452056</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="U23" t="n">
-        <v>3682.163298198641</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="V23" t="n">
-        <v>3351.100410855071</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W23" t="n">
-        <v>2998.331755584956</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X23" t="n">
-        <v>2624.865997323876</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y23" t="n">
-        <v>2234.726665348065</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H24" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I24" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J24" t="n">
         <v>228.9031180673686</v>
       </c>
       <c r="K24" t="n">
-        <v>599.9915027548478</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L24" t="n">
-        <v>829.9546086231969</v>
+        <v>914.6392027753793</v>
       </c>
       <c r="M24" t="n">
-        <v>1150.289928152899</v>
+        <v>1234.974522305081</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.59492715671</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.348341240672</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P24" t="n">
         <v>2564.640348518367</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="C25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="D25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="E25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="F25" t="n">
-        <v>446.9596406084003</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="G25" t="n">
-        <v>358.3093198848604</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H25" t="n">
-        <v>206.0167497752186</v>
+        <v>203.7444540893141</v>
       </c>
       <c r="I25" t="n">
-        <v>88.14161651240961</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J25" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K25" t="n">
         <v>212.046385895188</v>
@@ -6178,19 +6178,19 @@
         <v>736.0997797731095</v>
       </c>
       <c r="U25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="V25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="W25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="X25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.9596406084003</v>
+        <v>671.3131336452813</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1848.126825283942</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C26" t="n">
-        <v>1479.16430834353</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D26" t="n">
-        <v>1120.89860973678</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E26" t="n">
-        <v>735.1103571385356</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1244523489281</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G26" t="n">
-        <v>85.86932082650512</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H26" t="n">
-        <v>85.86932082650512</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I26" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J26" t="n">
-        <v>315.4340448017695</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K26" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L26" t="n">
-        <v>1409.142484443881</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M26" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N26" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O26" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P26" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q26" t="n">
-        <v>4263.177005716607</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R26" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S26" t="n">
-        <v>4148.461884543324</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T26" t="n">
-        <v>3935.815643452055</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="U26" t="n">
-        <v>3682.16329819864</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="V26" t="n">
-        <v>3351.10041085507</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W26" t="n">
-        <v>2998.331755584955</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X26" t="n">
-        <v>2624.865997323875</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y26" t="n">
-        <v>2234.726665348064</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I27" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>104.0729930803638</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3407931253902</v>
+        <v>357.7993728666365</v>
       </c>
       <c r="L27" t="n">
-        <v>406.587375925139</v>
+        <v>587.7624787349856</v>
       </c>
       <c r="M27" t="n">
-        <v>1112.501904484756</v>
+        <v>908.0977982646874</v>
       </c>
       <c r="N27" t="n">
-        <v>1852.806903488568</v>
+        <v>1648.402797268498</v>
       </c>
       <c r="O27" t="n">
-        <v>2463.625669004862</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P27" t="n">
-        <v>2578.365568593983</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q27" t="n">
         <v>2634.034907031697</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="C28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="D28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="E28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="F28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K28" t="n">
-        <v>212.0463858951879</v>
+        <v>3220.576739741752</v>
       </c>
       <c r="L28" t="n">
-        <v>429.0360225430044</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M28" t="n">
-        <v>668.2102932905834</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N28" t="n">
-        <v>907.1321508824185</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O28" t="n">
-        <v>1111.798861477226</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P28" t="n">
-        <v>1263.405907429031</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q28" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R28" t="n">
-        <v>1284.935687478692</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S28" t="n">
-        <v>1284.935687478692</v>
+        <v>4152.327750255399</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.935687478692</v>
+        <v>3927.641472080626</v>
       </c>
       <c r="U28" t="n">
-        <v>1078.7531091109</v>
+        <v>3638.501332915917</v>
       </c>
       <c r="V28" t="n">
-        <v>824.0686209050132</v>
+        <v>3383.81684471003</v>
       </c>
       <c r="W28" t="n">
-        <v>534.6514508680525</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="X28" t="n">
-        <v>306.6618999700352</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.86932082650512</v>
+        <v>3094.39967467307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2413.541721645326</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C29" t="n">
-        <v>2044.579204704914</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D29" t="n">
-        <v>1686.313506098164</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E29" t="n">
-        <v>1300.525253499919</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F29" t="n">
-        <v>889.5393487103117</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G29" t="n">
-        <v>472.9435419646762</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H29" t="n">
-        <v>159.7588658896333</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I29" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J29" t="n">
-        <v>315.4340448017695</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K29" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L29" t="n">
-        <v>1409.142484443881</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M29" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N29" t="n">
         <v>2838.872804512372</v>
@@ -6482,31 +6482,31 @@
         <v>3965.930520291102</v>
       </c>
       <c r="Q29" t="n">
-        <v>4263.177005716607</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R29" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S29" t="n">
-        <v>4148.461884543324</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T29" t="n">
-        <v>4148.461884543324</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="U29" t="n">
-        <v>3894.80953928991</v>
+        <v>4274.414753217768</v>
       </c>
       <c r="V29" t="n">
-        <v>3563.746651946339</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W29" t="n">
-        <v>3563.746651946339</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X29" t="n">
-        <v>3190.280893685259</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y29" t="n">
-        <v>2800.141561709448</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I30" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J30" t="n">
-        <v>228.9031180673685</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K30" t="n">
-        <v>599.9915027548478</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="L30" t="n">
-        <v>1006.367768422738</v>
+        <v>789.2816427175419</v>
       </c>
       <c r="M30" t="n">
-        <v>1251.234283869856</v>
+        <v>1495.196171277159</v>
       </c>
       <c r="N30" t="n">
-        <v>1991.539282873666</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O30" t="n">
-        <v>2212.434352305999</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q30" t="n">
         <v>2634.034907031697</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3118.933788210622</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J31" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K31" t="n">
-        <v>3220.576739741752</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L31" t="n">
-        <v>3437.566376389568</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M31" t="n">
-        <v>3676.740647137147</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N31" t="n">
-        <v>3915.662504728982</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O31" t="n">
-        <v>4120.329215323789</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P31" t="n">
-        <v>4271.936261275594</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q31" t="n">
-        <v>4293.466041325256</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R31" t="n">
-        <v>4293.466041325256</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S31" t="n">
-        <v>4293.466041325256</v>
+        <v>1082.369777269892</v>
       </c>
       <c r="T31" t="n">
-        <v>4293.466041325256</v>
+        <v>857.6834990951186</v>
       </c>
       <c r="U31" t="n">
-        <v>4293.466041325256</v>
+        <v>568.5433599304093</v>
       </c>
       <c r="V31" t="n">
-        <v>4038.781553119369</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="W31" t="n">
-        <v>3749.364383082408</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X31" t="n">
-        <v>3521.374832184391</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="Y31" t="n">
-        <v>3300.582253040861</v>
+        <v>85.86932082650513</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1993.130982065874</v>
+        <v>1993.130982065875</v>
       </c>
       <c r="C32" t="n">
-        <v>1624.168465125462</v>
+        <v>1624.168465125463</v>
       </c>
       <c r="D32" t="n">
         <v>1265.902766518712</v>
       </c>
       <c r="E32" t="n">
-        <v>880.1145139204673</v>
+        <v>880.1145139204682</v>
       </c>
       <c r="F32" t="n">
-        <v>469.1286091308597</v>
+        <v>469.1286091308606</v>
       </c>
       <c r="G32" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H32" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I32" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J32" t="n">
         <v>315.4340448017695</v>
       </c>
       <c r="K32" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L32" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M32" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N32" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O32" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P32" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q32" t="n">
-        <v>4263.177005716607</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R32" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S32" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T32" t="n">
-        <v>4080.819800233986</v>
+        <v>4080.819800233987</v>
       </c>
       <c r="U32" t="n">
-        <v>3827.167454980572</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.104567637001</v>
+        <v>3496.104567637002</v>
       </c>
       <c r="W32" t="n">
-        <v>3143.335912366887</v>
+        <v>3143.335912366888</v>
       </c>
       <c r="X32" t="n">
-        <v>2769.870154105807</v>
+        <v>2769.870154105808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2379.730822129995</v>
+        <v>2379.730822129996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2646.853706366315</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C33" t="n">
-        <v>2472.400677085188</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D33" t="n">
-        <v>2323.466267423937</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E33" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F33" t="n">
-        <v>2017.694254445367</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G33" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H33" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I33" t="n">
-        <v>1745.300455120065</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J33" t="n">
-        <v>1888.334252360928</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K33" t="n">
-        <v>2041.540878352268</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L33" t="n">
-        <v>2601.919403002441</v>
+        <v>790.1374797048154</v>
       </c>
       <c r="M33" t="n">
-        <v>3307.833931562058</v>
+        <v>1496.052008264433</v>
       </c>
       <c r="N33" t="n">
-        <v>3307.833931562058</v>
+        <v>1840.572663902051</v>
       </c>
       <c r="O33" t="n">
-        <v>3556.58734564602</v>
+        <v>2451.391429418346</v>
       </c>
       <c r="P33" t="n">
-        <v>4029.820188029052</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="Q33" t="n">
-        <v>4293.466041325256</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R33" t="n">
-        <v>4288.697482204205</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S33" t="n">
-        <v>4144.120071911081</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T33" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U33" t="n">
-        <v>3720.070307316814</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V33" t="n">
-        <v>3484.918199085072</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W33" t="n">
-        <v>3230.68084235687</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X33" t="n">
-        <v>3022.829342151337</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y33" t="n">
-        <v>2815.069043386383</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="C34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="D34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="E34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="F34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I34" t="n">
-        <v>3096.671970358973</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J34" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K34" t="n">
         <v>3220.576739741752</v>
       </c>
       <c r="L34" t="n">
-        <v>3437.566376389568</v>
+        <v>3437.566376389569</v>
       </c>
       <c r="M34" t="n">
-        <v>3676.740647137147</v>
+        <v>3676.740647137148</v>
       </c>
       <c r="N34" t="n">
-        <v>3915.662504728982</v>
+        <v>3915.662504728983</v>
       </c>
       <c r="O34" t="n">
-        <v>4120.329215323789</v>
+        <v>4120.32921532379</v>
       </c>
       <c r="P34" t="n">
-        <v>4271.936261275594</v>
+        <v>4271.936261275595</v>
       </c>
       <c r="Q34" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R34" t="n">
-        <v>4172.910792735326</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S34" t="n">
-        <v>3969.316411794446</v>
+        <v>4089.871660384377</v>
       </c>
       <c r="T34" t="n">
-        <v>3969.316411794446</v>
+        <v>3865.185382209604</v>
       </c>
       <c r="U34" t="n">
-        <v>3680.176272629737</v>
+        <v>3576.045243044895</v>
       </c>
       <c r="V34" t="n">
-        <v>3680.176272629737</v>
+        <v>3321.360754839008</v>
       </c>
       <c r="W34" t="n">
-        <v>3390.759102592776</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="X34" t="n">
-        <v>3390.759102592776</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="Y34" t="n">
-        <v>3169.966523449246</v>
+        <v>3094.39967467307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2339.652176582198</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C35" t="n">
-        <v>1970.689659641786</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D35" t="n">
-        <v>1612.423961035036</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E35" t="n">
-        <v>1226.635708436791</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F35" t="n">
-        <v>815.6498036471836</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G35" t="n">
-        <v>399.0539969015481</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H35" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I35" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J35" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K35" t="n">
         <v>780.2368617726829</v>
@@ -6947,13 +6947,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O35" t="n">
         <v>3467.276709192399</v>
       </c>
       <c r="P35" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q35" t="n">
         <v>4263.177005716608</v>
@@ -6962,25 +6962,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S35" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T35" t="n">
-        <v>4293.466041325257</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U35" t="n">
-        <v>4173.688649496896</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V35" t="n">
-        <v>3842.625762153325</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W35" t="n">
-        <v>3489.857106883211</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X35" t="n">
-        <v>3116.391348622131</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y35" t="n">
-        <v>2726.25201664632</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J36" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K36" t="n">
-        <v>354.260678125206</v>
+        <v>391.5183648004972</v>
       </c>
       <c r="L36" t="n">
-        <v>914.6392027753793</v>
+        <v>621.4814706688463</v>
       </c>
       <c r="M36" t="n">
-        <v>1234.974522305081</v>
+        <v>941.8167901985481</v>
       </c>
       <c r="N36" t="n">
-        <v>1579.495177942699</v>
+        <v>1286.337445836166</v>
       </c>
       <c r="O36" t="n">
-        <v>2190.313943458994</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P36" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q36" t="n">
         <v>2634.034907031697</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3244.516314085406</v>
+        <v>254.805503754412</v>
       </c>
       <c r="C37" t="n">
-        <v>3244.516314085406</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J37" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K37" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L37" t="n">
-        <v>3437.566376389569</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M37" t="n">
-        <v>3676.740647137148</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N37" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O37" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P37" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q37" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R37" t="n">
-        <v>4293.466041325257</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S37" t="n">
-        <v>4089.871660384377</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T37" t="n">
-        <v>3865.185382209604</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="U37" t="n">
-        <v>3576.045243044895</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="V37" t="n">
-        <v>3533.933484122366</v>
+        <v>909.6959506828761</v>
       </c>
       <c r="W37" t="n">
-        <v>3244.516314085406</v>
+        <v>703.5876337959595</v>
       </c>
       <c r="X37" t="n">
-        <v>3244.516314085406</v>
+        <v>475.5980828979422</v>
       </c>
       <c r="Y37" t="n">
-        <v>3244.516314085406</v>
+        <v>254.805503754412</v>
       </c>
     </row>
     <row r="38">
@@ -7184,7 +7184,7 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N38" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O38" t="n">
         <v>3467.276709192399</v>
@@ -7205,16 +7205,16 @@
         <v>4293.466041325257</v>
       </c>
       <c r="U38" t="n">
-        <v>4274.414753217768</v>
+        <v>4039.813696071843</v>
       </c>
       <c r="V38" t="n">
-        <v>3943.351865874197</v>
+        <v>3708.750808728272</v>
       </c>
       <c r="W38" t="n">
-        <v>3590.583210604083</v>
+        <v>3355.982153458157</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.117452343003</v>
+        <v>2982.516395197078</v>
       </c>
       <c r="Y38" t="n">
         <v>2826.978120367191</v>
@@ -7251,10 +7251,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J39" t="n">
-        <v>104.0729930803638</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3407931253903</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="L39" t="n">
         <v>363.3725740847656</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>407.098073864054</v>
+        <v>300.0436352720096</v>
       </c>
       <c r="C40" t="n">
-        <v>238.161890936147</v>
+        <v>131.1074523441027</v>
       </c>
       <c r="D40" t="n">
-        <v>238.161890936147</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E40" t="n">
-        <v>238.161890936147</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F40" t="n">
-        <v>238.161890936147</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G40" t="n">
-        <v>238.161890936147</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H40" t="n">
         <v>85.86932082650513</v>
@@ -7354,28 +7354,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R40" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S40" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T40" t="n">
-        <v>877.8866778590029</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U40" t="n">
-        <v>588.7465386942937</v>
+        <v>771.1092701392099</v>
       </c>
       <c r="V40" t="n">
-        <v>588.7465386942937</v>
+        <v>771.1092701392099</v>
       </c>
       <c r="W40" t="n">
-        <v>588.7465386942937</v>
+        <v>481.6921001022493</v>
       </c>
       <c r="X40" t="n">
-        <v>588.7465386942937</v>
+        <v>481.6921001022493</v>
       </c>
       <c r="Y40" t="n">
-        <v>588.7465386942937</v>
+        <v>481.6921001022493</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1848.126825283943</v>
+        <v>2101.779170537357</v>
       </c>
       <c r="C41" t="n">
-        <v>1479.164308343531</v>
+        <v>1732.816653596945</v>
       </c>
       <c r="D41" t="n">
-        <v>1120.898609736781</v>
+        <v>1374.550954990195</v>
       </c>
       <c r="E41" t="n">
-        <v>735.1103571385365</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F41" t="n">
-        <v>324.124452348929</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G41" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H41" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I41" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J41" t="n">
-        <v>315.4340448017695</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7442,19 +7442,19 @@
         <v>3935.815643452056</v>
       </c>
       <c r="U41" t="n">
-        <v>3682.163298198641</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="V41" t="n">
-        <v>3351.100410855071</v>
+        <v>3604.752756108485</v>
       </c>
       <c r="W41" t="n">
-        <v>2998.331755584956</v>
+        <v>3251.984100838371</v>
       </c>
       <c r="X41" t="n">
-        <v>2624.865997323876</v>
+        <v>2878.518342577291</v>
       </c>
       <c r="Y41" t="n">
-        <v>2234.726665348065</v>
+        <v>2488.379010601479</v>
       </c>
     </row>
     <row r="42">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.7185973368051</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C43" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D43" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E43" t="n">
         <v>85.86932082650513</v>
@@ -7597,22 +7597,22 @@
         <v>1284.935687478692</v>
       </c>
       <c r="T43" t="n">
-        <v>1284.935687478692</v>
+        <v>1147.100669132079</v>
       </c>
       <c r="U43" t="n">
-        <v>1284.935687478692</v>
+        <v>857.96052996737</v>
       </c>
       <c r="V43" t="n">
-        <v>1033.149192208592</v>
+        <v>603.2760417614832</v>
       </c>
       <c r="W43" t="n">
-        <v>1033.149192208592</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X43" t="n">
-        <v>805.159641310575</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="Y43" t="n">
-        <v>584.3670621670449</v>
+        <v>85.86932082650513</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2440.378280303069</v>
+        <v>1923.056369836562</v>
       </c>
       <c r="C44" t="n">
-        <v>2071.415763362658</v>
+        <v>1554.09385289615</v>
       </c>
       <c r="D44" t="n">
-        <v>1713.150064755907</v>
+        <v>1195.8281542894</v>
       </c>
       <c r="E44" t="n">
-        <v>1327.361812157663</v>
+        <v>810.0399016911556</v>
       </c>
       <c r="F44" t="n">
-        <v>916.3759073680556</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="G44" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H44" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I44" t="n">
         <v>85.86932082650513</v>
@@ -7649,7 +7649,7 @@
         <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726833</v>
       </c>
       <c r="L44" t="n">
         <v>1409.142484443882</v>
@@ -7673,25 +7673,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S44" t="n">
-        <v>4293.466041325257</v>
+        <v>4223.391429095945</v>
       </c>
       <c r="T44" t="n">
-        <v>4197.004211127612</v>
+        <v>4010.745188004675</v>
       </c>
       <c r="U44" t="n">
-        <v>3943.351865874197</v>
+        <v>3757.09284275126</v>
       </c>
       <c r="V44" t="n">
-        <v>3943.351865874197</v>
+        <v>3426.02995540769</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.583210604083</v>
+        <v>3073.261300137575</v>
       </c>
       <c r="X44" t="n">
-        <v>3217.117452343003</v>
+        <v>2699.795541876495</v>
       </c>
       <c r="Y44" t="n">
-        <v>2826.978120367191</v>
+        <v>2309.656209900684</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>228.9031180673686</v>
       </c>
       <c r="K45" t="n">
-        <v>599.9915027548478</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L45" t="n">
-        <v>793.2380855545966</v>
+        <v>584.2237839935551</v>
       </c>
       <c r="M45" t="n">
-        <v>1038.104601001714</v>
+        <v>1030.87310638491</v>
       </c>
       <c r="N45" t="n">
-        <v>1303.860649405407</v>
+        <v>1771.178105388722</v>
       </c>
       <c r="O45" t="n">
-        <v>1897.156211352461</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.034907031697</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>192.2751524025134</v>
+        <v>383.899053821234</v>
       </c>
       <c r="C46" t="n">
-        <v>192.2751524025134</v>
+        <v>383.899053821234</v>
       </c>
       <c r="D46" t="n">
-        <v>192.2751524025134</v>
+        <v>233.7824144088983</v>
       </c>
       <c r="E46" t="n">
-        <v>192.2751524025134</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F46" t="n">
-        <v>192.2751524025134</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G46" t="n">
-        <v>192.2751524025134</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2751524025134</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I46" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J46" t="n">
         <v>85.86932082650513</v>
@@ -7828,28 +7828,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R46" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S46" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T46" t="n">
-        <v>736.0997797731095</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U46" t="n">
-        <v>446.9596406084003</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="V46" t="n">
-        <v>192.2751524025134</v>
+        <v>741.1110601080965</v>
       </c>
       <c r="W46" t="n">
-        <v>192.2751524025134</v>
+        <v>451.6938900711359</v>
       </c>
       <c r="X46" t="n">
-        <v>192.2751524025134</v>
+        <v>383.899053821234</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.2751524025134</v>
+        <v>383.899053821234</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747269</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>14.04268121019609</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>215.2825079476176</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>85.10774793789057</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>376.1621136512333</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23276,7 +23276,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>99.71884268366323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>132.7219959405307</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>176.5572684709795</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>79.49891659040371</v>
       </c>
       <c r="D13" t="n">
-        <v>8.471240605205452</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2487377730621</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.0903191049154</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>99.71884268366323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U14" t="n">
-        <v>232.2550465744657</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>156.2411774833457</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>105.3576141611233</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
         <v>286.2487377730621</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,19 +23899,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.7023003289308</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>116.6963819301808</v>
       </c>
       <c r="J19" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>85.98274722987858</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>189.2606705331447</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
         <v>99.71884268366318</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>24.97449730403511</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5197786803569</v>
+        <v>33.00315325686731</v>
       </c>
       <c r="U20" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.89148137931519</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,19 +24136,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>44.76789072374434</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24218,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>276.2761111546428</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>132.5362038908017</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.9384828126263</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>222.1099581065121</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>176.5572684709805</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>232.2550465744657</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>2.24957272904544</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S28" t="n">
-        <v>201.5584371314712</v>
+        <v>61.83152897231221</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.12798518894772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>26.56819307116633</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5197786803569</v>
+        <v>191.6590034539425</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9580486964509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24859,7 +24859,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J31" t="n">
-        <v>2.24957272904544</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
-        <v>201.5584371314712</v>
+        <v>1.018186024758762</v>
       </c>
       <c r="T31" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>33.00315325686807</v>
+        <v>33.00315325686722</v>
       </c>
       <c r="H32" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366321</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.2703726225671</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25096,7 +25096,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>61.83152897231216</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I35" t="n">
-        <v>99.71884268366321</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>132.5362038908026</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>276.276111154643</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25333,7 +25333,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J37" t="n">
-        <v>2.24957272904544</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V37" t="n">
-        <v>210.4470019905251</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.47576461854362</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25445,7 +25445,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U38" t="n">
-        <v>232.2550465744657</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>232.2550465744663</v>
       </c>
     </row>
     <row r="39">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8297228157907</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>166.7023003289308</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I40" t="n">
         <v>116.6963819301808</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
-        <v>140.3690291050345</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.16028935376278</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>176.5572684709796</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,22 +25837,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4394153930256</v>
+        <v>85.98274722987858</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.869013006429043</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.5541152141125</v>
+        <v>74.1802491070935</v>
       </c>
       <c r="T44" t="n">
-        <v>115.0225667846881</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,10 +26041,10 @@
         <v>150.7696444085454</v>
       </c>
       <c r="I46" t="n">
-        <v>13.60418139897803</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>158.5927675016343</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>802981.6970632354</v>
+        <v>802981.6970632353</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>802981.6970632351</v>
+        <v>802981.6970632353</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>802981.6970632353</v>
+        <v>802981.6970632354</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>474489.1846282752</v>
+      </c>
+      <c r="F2" t="n">
+        <v>474489.1846282751</v>
+      </c>
+      <c r="G2" t="n">
+        <v>474489.1846282752</v>
+      </c>
+      <c r="H2" t="n">
         <v>474489.1846282753</v>
-      </c>
-      <c r="F2" t="n">
-        <v>474489.1846282753</v>
-      </c>
-      <c r="G2" t="n">
-        <v>474489.1846282754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>474489.1846282752</v>
       </c>
       <c r="I2" t="n">
         <v>474489.1846282753</v>
       </c>
       <c r="J2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="K2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="L2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="M2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="N2" t="n">
+        <v>474489.1846282755</v>
+      </c>
+      <c r="O2" t="n">
         <v>474489.1846282752</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>474489.1846282752</v>
-      </c>
-      <c r="L2" t="n">
-        <v>474489.1846282751</v>
-      </c>
-      <c r="M2" t="n">
-        <v>474489.1846282752</v>
-      </c>
-      <c r="N2" t="n">
-        <v>474489.1846282752</v>
-      </c>
-      <c r="O2" t="n">
-        <v>474489.1846282753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>474489.1846282751</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145441</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>2.588086545074475e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>389812.6557155696</v>
+        <v>389812.6557155692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.14232107862</v>
+        <v>99452.14232107846</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400805</v>
       </c>
       <c r="F4" t="n">
         <v>714.7644130400806</v>
@@ -26442,13 +26442,13 @@
         <v>714.7644130400806</v>
       </c>
       <c r="K4" t="n">
+        <v>714.7644130400807</v>
+      </c>
+      <c r="L4" t="n">
+        <v>714.7644130400807</v>
+      </c>
+      <c r="M4" t="n">
         <v>714.7644130400806</v>
-      </c>
-      <c r="L4" t="n">
-        <v>714.7644130400806</v>
-      </c>
-      <c r="M4" t="n">
-        <v>714.7644130400805</v>
       </c>
       <c r="N4" t="n">
         <v>714.7644130400806</v>
@@ -26457,7 +26457,7 @@
         <v>714.7644130400806</v>
       </c>
       <c r="P4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="F5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="G5" t="n">
         <v>80839.64176874656</v>
@@ -26488,16 +26488,16 @@
         <v>80839.64176874656</v>
       </c>
       <c r="I5" t="n">
+        <v>80839.64176874657</v>
+      </c>
+      <c r="J5" t="n">
         <v>80839.64176874656</v>
       </c>
-      <c r="J5" t="n">
-        <v>80839.64176874654</v>
-      </c>
       <c r="K5" t="n">
-        <v>80839.64176874654</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="L5" t="n">
-        <v>80839.64176874654</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="M5" t="n">
         <v>80839.64176874656</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467884</v>
+        <v>-278208.9460467887</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677556</v>
+        <v>311758.933167756</v>
       </c>
       <c r="D6" t="n">
         <v>311758.933167756</v>
       </c>
       <c r="E6" t="n">
-        <v>3122.122730919073</v>
+        <v>3122.122730919393</v>
       </c>
       <c r="F6" t="n">
+        <v>392934.7784464885</v>
+      </c>
+      <c r="G6" t="n">
+        <v>392934.7784464883</v>
+      </c>
+      <c r="H6" t="n">
         <v>392934.7784464887</v>
-      </c>
-      <c r="G6" t="n">
-        <v>392934.7784464888</v>
-      </c>
-      <c r="H6" t="n">
-        <v>392934.7784464886</v>
       </c>
       <c r="I6" t="n">
         <v>392934.7784464887</v>
@@ -26546,19 +26546,19 @@
         <v>216511.5592538957</v>
       </c>
       <c r="K6" t="n">
+        <v>392934.7784464887</v>
+      </c>
+      <c r="L6" t="n">
+        <v>392934.7784464887</v>
+      </c>
+      <c r="M6" t="n">
+        <v>293482.6361254103</v>
+      </c>
+      <c r="N6" t="n">
+        <v>392934.7784464888</v>
+      </c>
+      <c r="O6" t="n">
         <v>392934.7784464885</v>
-      </c>
-      <c r="L6" t="n">
-        <v>392934.7784464885</v>
-      </c>
-      <c r="M6" t="n">
-        <v>293482.63612541</v>
-      </c>
-      <c r="N6" t="n">
-        <v>392934.7784464886</v>
-      </c>
-      <c r="O6" t="n">
-        <v>392934.7784464887</v>
       </c>
       <c r="P6" t="n">
         <v>392934.7784464885</v>
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>714.6310981927822</v>
+      </c>
+      <c r="F3" t="n">
+        <v>714.6310981927822</v>
+      </c>
+      <c r="G3" t="n">
         <v>714.6310981927826</v>
-      </c>
-      <c r="F3" t="n">
-        <v>714.6310981927825</v>
-      </c>
-      <c r="G3" t="n">
-        <v>714.6310981927825</v>
       </c>
       <c r="H3" t="n">
         <v>714.6310981927825</v>
       </c>
       <c r="I3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="J3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="K3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="L3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="M3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="N3" t="n">
         <v>714.6310981927825</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1073.366510331314</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.887433975696</v>
+        <v>336.8874339756956</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.0792375767589</v>
+        <v>399.0792375767585</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767588</v>
+        <v>399.0792375767582</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767589</v>
+        <v>399.0792375767585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>168.1898874990566</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>197.2157408858599</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.0681335233692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>147.8252981211501</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.4177784134395</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>118.1180418731985</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>52.27167719702715</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>48.40605128501176</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955906</v>
       </c>
       <c r="H11" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147468</v>
       </c>
       <c r="I11" t="n">
         <v>110.7570468867427</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K11" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L11" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M11" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N11" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O11" t="n">
-        <v>484.0494490276551</v>
+        <v>484.0494490276548</v>
       </c>
       <c r="P11" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q11" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918223</v>
       </c>
       <c r="R11" t="n">
-        <v>180.4641034044317</v>
+        <v>180.4641034044316</v>
       </c>
       <c r="S11" t="n">
-        <v>65.46595437213281</v>
+        <v>65.46595437213279</v>
       </c>
       <c r="T11" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H12" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I12" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314473</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.225174397837</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>389.4739485150665</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>399.7821650163566</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3612387056274</v>
+        <v>130.1982371709779</v>
       </c>
       <c r="P12" t="n">
-        <v>293.5246108784658</v>
+        <v>293.5246108784656</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.2134290736108</v>
+        <v>196.2134290736107</v>
       </c>
       <c r="R12" t="n">
-        <v>95.43696062280222</v>
+        <v>95.43696062280216</v>
       </c>
       <c r="S12" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T12" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275157</v>
       </c>
       <c r="U12" t="n">
         <v>0.1011270421970919</v>
@@ -31911,46 +31911,46 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H13" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I13" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707744</v>
       </c>
       <c r="J13" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762732</v>
       </c>
       <c r="K13" t="n">
-        <v>149.7210727033403</v>
+        <v>149.7210727033402</v>
       </c>
       <c r="L13" t="n">
-        <v>191.5914258990945</v>
+        <v>191.5914258990944</v>
       </c>
       <c r="M13" t="n">
-        <v>202.0062955104614</v>
+        <v>202.0062955104613</v>
       </c>
       <c r="N13" t="n">
-        <v>197.2030373094937</v>
+        <v>197.2030373094936</v>
       </c>
       <c r="O13" t="n">
-        <v>182.148923191826</v>
+        <v>182.1489231918259</v>
       </c>
       <c r="P13" t="n">
         <v>155.8598709894553</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R13" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313934</v>
       </c>
       <c r="S13" t="n">
-        <v>22.45816090550104</v>
+        <v>22.45816090550103</v>
       </c>
       <c r="T13" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255861</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879832</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955906</v>
       </c>
       <c r="H14" t="n">
-        <v>29.42197280147469</v>
+        <v>29.42197280147468</v>
       </c>
       <c r="I14" t="n">
         <v>110.7570468867427</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K14" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M14" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N14" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O14" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276548</v>
       </c>
       <c r="P14" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q14" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918223</v>
       </c>
       <c r="R14" t="n">
-        <v>180.4641034044317</v>
+        <v>180.4641034044316</v>
       </c>
       <c r="S14" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213279</v>
       </c>
       <c r="T14" t="n">
         <v>12.57607088377449</v>
@@ -32069,43 +32069,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H15" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I15" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314473</v>
       </c>
       <c r="J15" t="n">
-        <v>145.2251743978371</v>
+        <v>145.225174397837</v>
       </c>
       <c r="K15" t="n">
-        <v>199.4438710819964</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>333.7529482644689</v>
+        <v>333.7529482644688</v>
       </c>
       <c r="M15" t="n">
-        <v>389.4739485150664</v>
+        <v>159.5595308203657</v>
       </c>
       <c r="N15" t="n">
-        <v>399.7821650163567</v>
+        <v>399.7821650163566</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280216</v>
       </c>
       <c r="S15" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T15" t="n">
-        <v>6.195716785275159</v>
+        <v>6.195716785275157</v>
       </c>
       <c r="U15" t="n">
         <v>0.1011270421970919</v>
@@ -32148,46 +32148,46 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H16" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I16" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707744</v>
       </c>
       <c r="J16" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762732</v>
       </c>
       <c r="K16" t="n">
-        <v>149.7210727033403</v>
+        <v>149.7210727033402</v>
       </c>
       <c r="L16" t="n">
-        <v>191.5914258990945</v>
+        <v>191.5914258990944</v>
       </c>
       <c r="M16" t="n">
-        <v>202.0062955104614</v>
+        <v>202.0062955104613</v>
       </c>
       <c r="N16" t="n">
-        <v>197.2030373094937</v>
+        <v>197.2030373094936</v>
       </c>
       <c r="O16" t="n">
-        <v>182.148923191826</v>
+        <v>182.1489231918259</v>
       </c>
       <c r="P16" t="n">
         <v>155.8598709894553</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R16" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313934</v>
       </c>
       <c r="S16" t="n">
-        <v>22.45816090550104</v>
+        <v>22.45816090550103</v>
       </c>
       <c r="T16" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255861</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879832</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955908</v>
       </c>
       <c r="H17" t="n">
-        <v>29.42197280147469</v>
+        <v>29.4219728014747</v>
       </c>
       <c r="I17" t="n">
         <v>110.7570468867427</v>
@@ -32239,16 +32239,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L17" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379198</v>
       </c>
       <c r="M17" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921344</v>
       </c>
       <c r="N17" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001354</v>
       </c>
       <c r="O17" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276551</v>
       </c>
       <c r="P17" t="n">
         <v>413.125005865306</v>
@@ -32260,13 +32260,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S17" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213281</v>
       </c>
       <c r="T17" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2298311069564725</v>
+        <v>0.2298311069564726</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.537131041395796</v>
+        <v>1.537131041395797</v>
       </c>
       <c r="H18" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I18" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314476</v>
       </c>
       <c r="J18" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>233.8474560183489</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>365.7225772043761</v>
+        <v>203.6728954127379</v>
       </c>
       <c r="P18" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R18" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280222</v>
       </c>
       <c r="S18" t="n">
-        <v>28.55153491364558</v>
+        <v>28.55153491364559</v>
       </c>
       <c r="T18" t="n">
-        <v>6.195716785275159</v>
+        <v>6.19571678527516</v>
       </c>
       <c r="U18" t="n">
         <v>0.1011270421970919</v>
@@ -32391,7 +32391,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J19" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762736</v>
       </c>
       <c r="K19" t="n">
         <v>149.7210727033403</v>
@@ -32415,16 +32415,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R19" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313937</v>
       </c>
       <c r="S19" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T19" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879836</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,25 +32552,25 @@
         <v>145.2251743978371</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>333.7529482644689</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>389.4739485150664</v>
       </c>
       <c r="N21" t="n">
-        <v>399.7821650163567</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>365.7225772043761</v>
       </c>
       <c r="P21" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.2134290736108</v>
+        <v>137.8981183817482</v>
       </c>
       <c r="R21" t="n">
         <v>95.4369606228022</v>
@@ -32707,28 +32707,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J23" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K23" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L23" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M23" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N23" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O23" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P23" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q23" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R23" t="n">
         <v>180.4641034044317</v>
@@ -32780,43 +32780,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H24" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I24" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J24" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K24" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>399.7821650163567</v>
+        <v>265.8170849582567</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>245.0995249134795</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S24" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T24" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U24" t="n">
         <v>0.1011270421970919</v>
@@ -32859,13 +32859,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H25" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I25" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J25" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K25" t="n">
         <v>149.7210727033403</v>
@@ -32886,19 +32886,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R25" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S25" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T25" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,28 +32944,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K26" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L26" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M26" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N26" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O26" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P26" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q26" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R26" t="n">
         <v>180.4641034044317</v>
@@ -33017,43 +33017,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H27" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I27" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J27" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>248.2129541713554</v>
+        <v>148.0530222043373</v>
       </c>
       <c r="L27" t="n">
-        <v>333.7529482644688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>389.4739485150664</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>399.7821650163567</v>
       </c>
       <c r="O27" t="n">
-        <v>365.7225772043761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>249.8732958881896</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q27" t="n">
         <v>196.2134290736108</v>
       </c>
       <c r="R27" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S27" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T27" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U27" t="n">
         <v>0.1011270421970919</v>
@@ -33096,13 +33096,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H28" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I28" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J28" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K28" t="n">
         <v>149.7210727033403</v>
@@ -33123,19 +33123,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R28" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S28" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T28" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,28 +33181,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K29" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L29" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M29" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N29" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O29" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P29" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q29" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R29" t="n">
         <v>180.4641034044317</v>
@@ -33254,43 +33254,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H30" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I30" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J30" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K30" t="n">
-        <v>248.2129541713554</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>333.7529482644688</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M30" t="n">
         <v>389.4739485150664</v>
       </c>
       <c r="N30" t="n">
-        <v>399.7821650163567</v>
+        <v>296.4915453598755</v>
       </c>
       <c r="O30" t="n">
-        <v>365.7225772043761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>293.5246108784657</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S30" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T30" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U30" t="n">
         <v>0.1011270421970919</v>
@@ -33333,13 +33333,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H31" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I31" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J31" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K31" t="n">
         <v>149.7210727033403</v>
@@ -33360,19 +33360,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R31" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S31" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T31" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,28 +33418,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J32" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K32" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L32" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M32" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N32" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O32" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P32" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q32" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R32" t="n">
         <v>180.4641034044317</v>
@@ -33491,43 +33491,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H33" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I33" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J33" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K33" t="n">
-        <v>28.13036962979984</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>333.7529482644688</v>
+        <v>207.9936320315761</v>
       </c>
       <c r="M33" t="n">
         <v>389.4739485150664</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P33" t="n">
-        <v>293.5246108784657</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.2134290736108</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S33" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T33" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U33" t="n">
         <v>0.1011270421970919</v>
@@ -33570,13 +33570,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H34" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I34" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J34" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K34" t="n">
         <v>149.7210727033403</v>
@@ -33597,19 +33597,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R34" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S34" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T34" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,28 +33655,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J35" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K35" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L35" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M35" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N35" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O35" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P35" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q35" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R35" t="n">
         <v>180.4641034044317</v>
@@ -33728,19 +33728,19 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H36" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I36" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J36" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>182.1126100163178</v>
       </c>
       <c r="L36" t="n">
-        <v>333.7529482644688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33752,19 +33752,19 @@
         <v>365.7225772043761</v>
       </c>
       <c r="P36" t="n">
-        <v>193.619118632346</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R36" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S36" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T36" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U36" t="n">
         <v>0.1011270421970919</v>
@@ -33807,13 +33807,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H37" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I37" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J37" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K37" t="n">
         <v>149.7210727033403</v>
@@ -33834,19 +33834,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R37" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S37" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T37" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J39" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>248.2129541713554</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>290.1016332741927</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M39" t="n">
         <v>389.4739485150664</v>
@@ -34369,7 +34369,7 @@
         <v>243.8328489255867</v>
       </c>
       <c r="K44" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939307</v>
       </c>
       <c r="L44" t="n">
         <v>453.3634051379197</v>
@@ -34390,7 +34390,7 @@
         <v>310.2396743918225</v>
       </c>
       <c r="R44" t="n">
-        <v>180.4641034044316</v>
+        <v>180.4641034044317</v>
       </c>
       <c r="S44" t="n">
         <v>65.4659543721328</v>
@@ -34448,13 +34448,13 @@
         <v>145.2251743978371</v>
       </c>
       <c r="K45" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>333.7529482644689</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>389.4739485150664</v>
+        <v>127.5899018804581</v>
       </c>
       <c r="N45" t="n">
         <v>399.7821650163567</v>
@@ -34463,10 +34463,10 @@
         <v>365.7225772043761</v>
       </c>
       <c r="P45" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>95.4369606228022</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770683</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535759</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K11" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L11" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M11" t="n">
-        <v>723.6214422576942</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N11" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O11" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687135</v>
       </c>
       <c r="P11" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772775</v>
       </c>
       <c r="R11" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328194</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>713.0449783430481</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6273135379125</v>
+        <v>381.464312003263</v>
       </c>
       <c r="P12" t="n">
-        <v>478.0129721040727</v>
+        <v>478.0129721040726</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.3089427234384</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M13" t="n">
-        <v>241.590172472302</v>
+        <v>241.5901724723019</v>
       </c>
       <c r="N13" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O13" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P13" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541573</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K14" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L14" t="n">
-        <v>635.2582047183829</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M14" t="n">
-        <v>723.6214422576941</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N14" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O14" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687135</v>
       </c>
       <c r="P14" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772775</v>
       </c>
       <c r="R14" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328194</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K15" t="n">
-        <v>61.60243210763745</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M15" t="n">
-        <v>713.044978343048</v>
+        <v>483.1305606483473</v>
       </c>
       <c r="N15" t="n">
         <v>747.7828272765769</v>
@@ -35741,10 +35741,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>159.5502034641355</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.23165498758928</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>219.1814511594106</v>
       </c>
       <c r="M16" t="n">
-        <v>241.590172472302</v>
+        <v>241.5901724723019</v>
       </c>
       <c r="N16" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O16" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P16" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.74725257541577</v>
+        <v>21.74725257541573</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709742</v>
       </c>
       <c r="K17" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L17" t="n">
-        <v>635.2582047183829</v>
+        <v>635.258204718383</v>
       </c>
       <c r="M17" t="n">
-        <v>723.6214422576941</v>
+        <v>723.6214422576942</v>
       </c>
       <c r="N17" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155287</v>
       </c>
       <c r="O17" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687137</v>
       </c>
       <c r="P17" t="n">
         <v>503.6907182815191</v>
@@ -35905,7 +35905,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R17" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>360.4712540565685</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9886520366613</v>
+        <v>454.938970245023</v>
       </c>
       <c r="P18" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234384</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1814511594106</v>
+        <v>219.1814511594107</v>
       </c>
       <c r="M19" t="n">
         <v>241.590172472302</v>
@@ -36060,7 +36060,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.74725257541577</v>
+        <v>21.74725257541579</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K21" t="n">
-        <v>124.4141964071925</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>195.1985684845947</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>713.044978343048</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7828272765769</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>223.1263327599317</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P21" t="n">
-        <v>159.5502034641355</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.3089427234383</v>
+        <v>207.9936320315758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K23" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L23" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M23" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N23" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O23" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P23" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R23" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K24" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7828272765769</v>
+        <v>613.8177472184769</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>429.5878861390864</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36525,16 +36525,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N25" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O25" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P25" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K26" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L26" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M26" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N26" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O26" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P26" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R26" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.38754773117037</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>110.3715151969964</v>
+        <v>274.6768202425569</v>
       </c>
       <c r="L27" t="n">
-        <v>195.1985684845947</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>713.0449783430479</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>747.7828272765769</v>
       </c>
       <c r="O27" t="n">
-        <v>616.9886520366612</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>115.8988884738594</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.23165498758925</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N28" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O28" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P28" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K29" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L29" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M29" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N29" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O29" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P29" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R29" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K30" t="n">
-        <v>374.836752209575</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>410.4810764322123</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M30" t="n">
-        <v>247.339914593048</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7828272765769</v>
+        <v>644.4922076200958</v>
       </c>
       <c r="O30" t="n">
-        <v>223.1263327599316</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5502034641354</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>266.3089427234383</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N31" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O31" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P31" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K32" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L32" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M32" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N32" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O32" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P32" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R32" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K33" t="n">
-        <v>154.7541676680194</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>566.0389137880538</v>
+        <v>440.279597555161</v>
       </c>
       <c r="M33" t="n">
-        <v>713.0449783430479</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P33" t="n">
-        <v>478.0129721040726</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.3089427234383</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N34" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O34" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P34" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K35" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L35" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M35" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N35" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O35" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P35" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R35" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>308.7364080545374</v>
       </c>
       <c r="L36" t="n">
-        <v>566.0389137880538</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
@@ -37397,13 +37397,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>616.9886520366612</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P36" t="n">
-        <v>378.107479857953</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N37" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O37" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P37" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.38754773117037</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>110.3715151969964</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>151.5472534943185</v>
+        <v>280.3063164224853</v>
       </c>
       <c r="M39" t="n">
         <v>713.044978343048</v>
@@ -38017,7 +38017,7 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201149</v>
       </c>
       <c r="L44" t="n">
         <v>635.2582047183829</v>
@@ -38038,7 +38038,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328192</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K45" t="n">
-        <v>374.836752209575</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>195.1985684845947</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>247.3399145930481</v>
+        <v>451.1609317084397</v>
       </c>
       <c r="N45" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O45" t="n">
-        <v>599.288446411165</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P45" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>266.3089427234383</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
